--- a/biology/Virologie/Stellavirales/Stellavirales.xlsx
+++ b/biology/Virologie/Stellavirales/Stellavirales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Astroviridae est une famille de virus appartenant au groupe IV des virus à ARN simple brin (à polarité positive). Cette famille de virus a été décrite pour la première fois en 1975.
 Le nom d'astrovirus vient du mot grec astron qui signifie « étoile ».
@@ -514,7 +526,9 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hommes de tout âge sont susceptibles d'être infectés, mais les enfants, les personnes âgées et les personnes immunodéprimés sont tout particulièrement sensibles.
 Ces virus occasionnent souvent des infections sporadiques mais peuvent également être responsables d'épidémies de gastro-entérite, avec un pic d'incidence en hiver.
@@ -546,7 +560,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont de petits virus non enveloppés, icosaédriques, mesurant 28 à 30 nm. Ils ont une forme d'étoile à cinq ou six branches (d'où leur nom).
 Leur génome est de type ARN simple brin. Le génome complet comprend entre 6800 et 7900 nucléotides.
@@ -579,7 +595,9 @@
           <t>Genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les Astrovirus sont divisés en deux genres :
 le genre Mamastrovirus, espèce : Astrovirus humain, qui infecte, entre autres mammifères, les humains,
@@ -611,7 +629,9 @@
           <t>Pathogénécité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La transmission est orofécale. Elle se fait principalement par le biais de l'eau et des aliments.
 La période d'incubation est de trois à quatre jours. Ils infectent, selon l'espèce, l'homme, les oiseaux, les chats, les chiens, les porcs, les moutons.
@@ -647,7 +667,9 @@
           <t>Méthodes de diagnostic</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le diagnostic peut être fait en microscopie électronique. Les techniques telles que ELISA, l'immunofluorescence et la RT-PCR peuvent être utilisées.
 Sa culture est difficile car nécessite un milieu spécial (cellules fœtales).
@@ -679,7 +701,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Il n'y a pas de traitement spécifique, ni de vaccin. Le traitement est symptomatique, et s'appuie principalement sur la réhydratation.
 </t>
